--- a/7. Crawling/아이폰_news_results.xlsx
+++ b/7. Crawling/아이폰_news_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,108 +1111,108 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>디지털투데이</t>
+          <t>Daum</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>애플, 아이폰 에어 판매 부진…초슬림 스마트폰 시장 흔들려</t>
+          <t>“삼성 최고폰 100만원 할인” “우린 공짜로 준다”…난리였는데, ‘충격 반전’</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[디지털투데이 AI리포터] 아이폰 에어가 기대 이하의 판매 실적을 기록하면서, 초슬림 스마트폰 시장 전체가 흔들리고 있다.2일(현지시간) IT전문매체...</t>
+          <t>[헤럴드경제=권제인 기자] “공짜폰 쏟아질 줄 알았는데, 실망이다.” 공짜폰, 수백만원대 지원금을 기대했던 소비자들이 크게 실망하고 있다.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>3주 전</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.digitaltoday.co.kr/news/articleView.html?idxno=601754</t>
+          <t>https://v.daum.net/v/20251011202648391</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>네이트</t>
+          <t>디지털투데이</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>애플, 아이폰 일부 앱·에어팟서 한국어 실시간 번역 기능 추가</t>
+          <t>애플, 아이폰 에어 판매 부진…초슬림 스마트폰 시장 흔들려</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>한눈에 보는 오늘 : IT/과학 - 뉴스 : 에어팟 프로3. 애플 제공 애플이 아이폰 일부 앱과 에어팟에 한국어\·중국어\·일본어 실시간 번역 기능을 추가...</t>
+          <t>[디지털투데이 AI리포터] 아이폰 에어가 기대 이하의 판매 실적을 기록하면서, 초슬림 스마트폰 시장 전체가 흔들리고 있다.2일(현지시간) IT전문매체...</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11시간 전</t>
+          <t>1일 전</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20251104n34480</t>
+          <t>https://www.digitaltoday.co.kr/news/articleView.html?idxno=601754</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>케이벤치</t>
+          <t>네이트</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>'아너 500' 시리즈 스케치 유출.. '아이폰 에어' 디자인 유사</t>
+          <t>애플, 아이폰 일부 앱·에어팟서 한국어 실시간 번역 기능 추가</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>출처: DCS 웨이보. 중국 스마트폰 제조사 아너(Honor)가 이달 말 중국에서 공식 발표할 예정인 '아너 500' 시리즈의 디자인이 공개됐다.</t>
+          <t>한눈에 보는 오늘 : IT/과학 - 뉴스 : 에어팟 프로3. 애플 제공 애플이 아이폰 일부 앱과 에어팟에 한국어\·중국어\·일본어 실시간 번역 기능을 추가...</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>14시간 전</t>
+          <t>11시간 전</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://kbench.com/?q=node/272880</t>
+          <t>https://news.nate.com/view/20251104n34480</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Daum</t>
+          <t>케이벤치</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>“삼성 최고폰 100만원 할인” “우린 공짜로 준다”…난리였는데, ‘충격 반전’</t>
+          <t>'아너 500' 시리즈 스케치 유출.. '아이폰 에어' 디자인 유사</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[헤럴드경제=권제인 기자] “공짜폰 쏟아질 줄 알았는데, 실망이다.” 공짜폰, 수백만원대 지원금을 기대했던 소비자들이 크게 실망하고 있다.</t>
+          <t>출처: DCS 웨이보. 중국 스마트폰 제조사 아너(Honor)가 이달 말 중국에서 공식 발표할 예정인 '아너 500' 시리즈의 디자인이 공개됐다.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3주 전</t>
+          <t>14시간 전</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://v.daum.net/v/20251011202648391</t>
+          <t>https://kbench.com/?q=node/272880</t>
         </is>
       </c>
     </row>
@@ -1246,17 +1246,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>뉴닉</t>
+          <t>KBS 뉴스</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>역대 최고 매출 낼 것 같다는 애플, 원인은 ‘아이폰 17 대흥행’? 🍎💰</t>
+          <t>‘엔비디아 행사’ 뜬 이재용 “근데 아이폰이 왜 이렇게 많아요” [지금뉴스]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>애플이 역대 최고 분기 매출을 낼 것 같다는 예측이 나왔어요. 애플은 2025 회계연도 4분기(7~9월) 실적으로 매출이 1024억 7000만 달러를 기록했다고...</t>
+          <t>젠슨 황 엔비디아 CEO가 30일 밤, 서울 코엑스 K-POP 광장에서 열린 엔비디아 '지포스 게이머 페스티벌 ' ...</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1266,78 +1266,78 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://newneek.co/@newneek/article/36558</t>
+          <t>https://news.kbs.co.kr/news/view.do?ncd=8395678</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>디지털데일리</t>
+          <t>뉴닉</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>애플, 아이폰18 프로 색상 또 바꾼다…브라운·퍼플·버건디</t>
+          <t>역대 최고 매출 낼 것 같다는 애플, 원인은 ‘아이폰 17 대흥행’? 🍎💰</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>아이폰 17 시리즈. (왼쪽부터)아이폰17 기본형, 아이폰...</t>
+          <t>애플이 역대 최고 분기 매출을 낼 것 같다는 예측이 나왔어요. 애플은 2025 회계연도 4분기(7~9월) 실적으로 매출이 1024억 7000만 달러를 기록했다고...</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3일 전</t>
+          <t>4일 전</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://m.ddaily.co.kr/page/view/2025110107460510942</t>
+          <t>https://newneek.co/@newneek/article/36558</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>뉴스스페이스</t>
+          <t>디지털데일리</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[빅테크칼럼] 애플, 폴더블 아이폰 2026년 가을에 나온다…"창립 50돌 맞아 내년 최소 15종 신제품 출시"</t>
+          <t>애플, 아이폰18 프로 색상 또 바꾼다…브라운·퍼플·버건디</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>뉴스스페이스는 Space라는 제호처럼 “지구에서 우주로, 시간에서 공간으로, 개론에서 담론으로“으로 영역을 넓혀갑니다. 우주항공과 빅테크를 비롯해...</t>
+          <t>아이폰 17 시리즈. (왼쪽부터)아이폰17 기본형, 아이폰...</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>3일 전</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.newsspace.kr/news/article.html?no=10470</t>
+          <t>https://m.ddaily.co.kr/page/view/2025110107460510942</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>데일리시큐</t>
+          <t>뉴스스페이스</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>힐링쉴드, 아이폰 17 시리즈 전용 ‘프라이버시 보호필름’ 2종 출시</t>
+          <t>[빅테크칼럼] 애플, 폴더블 아이폰 2026년 가을에 나온다…"창립 50돌 맞아 내년 최소 15종 신제품 출시"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>디지털 디바이스 액세서리 전문 브랜드 힐링쉴드(Healing Shield)가 애플의 최신 스마트폰 아이폰 17 시리즈 전용 '프라이버시 보호필름' 2종(SGAF·</t>
+          <t>뉴스스페이스는 Space라는 제호처럼 “지구에서 우주로, 시간에서 공간으로, 개론에서 담론으로“으로 영역을 넓혀갑니다. 우주항공과 빅테크를 비롯해...</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1347,24 +1347,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.dailysecu.com/news/articleView.html?idxno=201997</t>
+          <t>https://www.newsspace.kr/news/article.html?no=10470</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Vietnam.vn</t>
+          <t>데일리시큐</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>아이폰 18 프로 맥스, 새로운 색상 출시 예정</t>
+          <t>힐링쉴드, 아이폰 17 시리즈 전용 ‘프라이버시 보호필름’ 2종 출시</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>(댄 트리) - 소셜 네트워크 Weibo에 게시된 게시물에서 Instant Digital 소식통은 iPhone 18 Pro와 iPhone 18 Pro Max 듀오가 커피 브라운,...</t>
+          <t>디지털 디바이스 액세서리 전문 브랜드 힐링쉴드(Healing Shield)가 애플의 최신 스마트폰 아이폰 17 시리즈 전용 '프라이버시 보호필름' 2종(SGAF·</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1374,78 +1374,78 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.vietnam.vn/ko/iphone-18-pro-max-se-co-mau-sac-moi</t>
+          <t>https://www.dailysecu.com/news/articleView.html?idxno=201997</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>지디넷코리아</t>
+          <t>Vietnam.vn</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>"에어팟 실시간 번역 한국어도 된다"</t>
+          <t>아이폰 18 프로 맥스, 새로운 색상 출시 예정</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>애플이 3일(현지시간) 최신 아이폰 운영체제 iOS 26.1을 정식 출시했다고 나인투파이브맥 등 외신들이 보도했다. 새롭게 출시된 iOS 26.1 기능 중 눈...</t>
+          <t>(댄 트리) - 소셜 네트워크 Weibo에 게시된 게시물에서 Instant Digital 소식통은 iPhone 18 Pro와 iPhone 18 Pro Max 듀오가 커피 브라운,...</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>20시간 전</t>
+          <t>1일 전</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://zdnet.co.kr/view/?no=20251104080656</t>
+          <t>https://www.vietnam.vn/ko/iphone-18-pro-max-se-co-mau-sac-moi</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Benzinga</t>
+          <t>지디넷코리아</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>주간 기술 뉴스: 애플의 사상 최대 아이폰 교체 수요, 넷플릭스의 워너 브라더스 인수 검토, 오픈AI의 IPO 등</t>
+          <t>"에어팟 실시간 번역 한국어도 된다"</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>지난주 기술계는 일련의 흥미로운 소식들로 떠들썩했다. 엔비디아(NASDAQ:NVDA) 시가총액이 5조 달러를 돌파하면서 애플(NASDAQ:AAPL)과 마이크로...</t>
+          <t>애플이 3일(현지시간) 최신 아이폰 운영체제 iOS 26.1을 정식 출시했다고 나인투파이브맥 등 외신들이 보도했다. 새롭게 출시된 iOS 26.1 기능 중 눈...</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>20시간 전</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://kr.benzinga.com/news/usa/stocks/%EC%A3%BC%EA%B0%84-%EA%B8%B0%EC%88%A0-%EB%89%B4%EC%8A%A4-%EC%95%A0%ED%94%8C%EC%9D%98-%EC%82%AC%EC%83%81-%EC%B5%9C%EB%8C%80-%EC%95%84%EC%9D%B4%ED%8F%B0-%EA%B5%90%EC%B2%B4-%EC%88%98%EC%9A%94-%EB%84%B7/</t>
+          <t>https://zdnet.co.kr/view/?no=20251104080656</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>디지털투데이</t>
+          <t>Benzinga</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>차기 아이폰18 프로, 블랙 컬러 빠진다…세 가지 유력 색상 등장</t>
+          <t>주간 기술 뉴스: 애플의 사상 최대 아이폰 교체 수요, 넷플릭스의 워너 브라더스 인수 검토, 오픈AI의 IPO 등</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[디지털투데이 AI리포터] 애플이 내년 아이폰18 프로와 프로 맥스 출시를 앞둔 가운데, 새로운 색상을 추가할 가능성이 제기됐다.</t>
+          <t>지난주 기술계는 일련의 흥미로운 소식들로 떠들썩했다. 엔비디아(NASDAQ:NVDA) 시가총액이 5조 달러를 돌파하면서 애플(NASDAQ:AAPL)과 마이크로...</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1455,61 +1455,61 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.digitaltoday.co.kr/news/articleView.html?idxno=601610</t>
+          <t>https://kr.benzinga.com/news/usa/stocks/%EC%A3%BC%EA%B0%84-%EA%B8%B0%EC%88%A0-%EB%89%B4%EC%8A%A4-%EC%95%A0%ED%94%8C%EC%9D%98-%EC%82%AC%EC%83%81-%EC%B5%9C%EB%8C%80-%EC%95%84%EC%9D%B4%ED%8F%B0-%EA%B5%90%EC%B2%B4-%EC%88%98%EC%9A%94-%EB%84%B7/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>시선뉴스</t>
+          <t>디지털투데이</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>애플, 아이폰·에어팟에 한국어 실시간 번역 도입…“대화 중 자동 통역된다”</t>
+          <t>차기 아이폰18 프로, 블랙 컬러 빠진다…세 가지 유력 색상 등장</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>애플이 아이폰과 에어팟에 한국어 실시간 번역 기능을 도입하며 글로벌 사용자 편의성을 한층 강화했다.4일 애플은 아이폰의 일부 앱과 에어팟 프로...</t>
+          <t>[디지털투데이 AI리포터] 애플이 내년 아이폰18 프로와 프로 맥스 출시를 앞둔 가운데, 새로운 색상을 추가할 가능성이 제기됐다.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>17시간 전</t>
+          <t>1일 전</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://www.sisunnews.co.kr/news/articleView.html?idxno=230838</t>
+          <t>https://www.digitaltoday.co.kr/news/articleView.html?idxno=601610</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>파이낸셜뉴스</t>
+          <t>시선뉴스</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"근데 아이폰이 왜 이렇게 많아요"···이재용의 그 말, 사실이었다</t>
+          <t>애플, 아이폰·에어팟에 한국어 실시간 번역 도입…“대화 중 자동 통역된다”</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>지난달 30일 이재용 삼성전자 회장은 '아이폰'을 견제하는 농담을 여러 차례 했다.실제 지난 7월 한국갤럽의 국내 스마트폰 이용자 조사를 보면 10·20...</t>
+          <t>애플이 아이폰과 에어팟에 한국어 실시간 번역 기능을 도입하며 글로벌 사용자 편의성을 한층 강화했다.4일 애플은 아이폰의 일부 앱과 에어팟 프로...</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>21시간 전</t>
+          <t>17시간 전</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.fnnews.com/news/202511040659499813</t>
+          <t>http://www.sisunnews.co.kr/news/articleView.html?idxno=230838</t>
         </is>
       </c>
     </row>
@@ -1543,44 +1543,44 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>디지털투데이</t>
+          <t>머니투데이</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>애플 iOS 26.1 정식 배포…리퀴드 글래스·음악 앱 개선</t>
+          <t>애플, 아이폰 17 반응 열광적…기대 넘은 매출 전망, 주가 2%대 상승</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[디지털투데이 AI리포터] 애플 iOS 26.1이 정식 배포되며 아이폰 사용자들에게 새로운 기능들이 제공된다. 3일(현지시간) IT매체 테크레이더에 따르면...</t>
+          <t>애플이 30일(현지시간) 시장 예상을 웃도는 지난 7~9월 분기 실적과 강력한 향후 실적 가이던스를 제시했다. 이에 따라 주가는 시간외거래에서 2.7%...</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>18시간 전</t>
+          <t>4일 전</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.digitaltoday.co.kr/news/articleView.html?idxno=601987</t>
+          <t>https://www.mt.co.kr/world/2025/10/31/2025103107414859705</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>머니투데이</t>
+          <t>Benzinga</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>애플, 아이폰 17 반응 열광적…기대 넘은 매출 전망, 주가 2%대 상승</t>
+          <t>팀 쿡, 9월 아이폰 업그레이드 기록세웠다고 밝혀···“강력한 수요로 일부 모델 공급 제한적”</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>애플이 30일(현지시간) 시장 예상을 웃도는 지난 7~9월 분기 실적과 강력한 향후 실적 가이던스를 제시했다. 이에 따라 주가는 시간외거래에서 2.7%...</t>
+          <t>목요일(30일) 애플(NASDAQ:AAPL)의 팀 쿡 최고경영자(CEO)는 9월 아이폰 업그레이드 기록을 세웠다고 밝히며, 최신 아이폰17 라인업에 대한 수요가...</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.mt.co.kr/world/2025/10/31/2025103107414859705</t>
+          <t>https://kr.benzinga.com/news/usa/stocks/%ED%8C%80-%EC%BF%A1-9%EC%9B%94-%EC%95%84%EC%9D%B4%ED%8F%B0-%EC%97%85%EA%B7%B8%EB%A0%88%EC%9D%B4%EB%93%9C-%EA%B8%B0%EB%A1%9D%EC%84%B8%EC%9B%A0%EB%8B%A4%EA%B3%A0-%EB%B0%9D%ED%98%80/</t>
         </is>
       </c>
     </row>
@@ -1602,12 +1602,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>팀 쿡, 9월 아이폰 업그레이드 기록세웠다고 밝혀···“강력한 수요로 일부 모델 공급 제한적”</t>
+          <t>애플의 광고 사업 부문, 모두 아이폰만 바라보는 사이 조용히 사상 최고 기록 달성</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>목요일(30일) 애플(NASDAQ:AAPL)의 팀 쿡 최고경영자(CEO)는 9월 아이폰 업그레이드 기록을 세웠다고 밝히며, 최신 아이폰17 라인업에 대한 수요가...</t>
+          <t>목요일(30일) 애널리스트들이 팀 쿡에게 아이폰17의 혁신적인 디자인과 중국 수요 회복에 대한 질문을 쏟아내는 동안, 애플(NASDAQ:AAPL)의 이번 분기...</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1617,51 +1617,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://kr.benzinga.com/news/usa/stocks/%ED%8C%80-%EC%BF%A1-9%EC%9B%94-%EC%95%84%EC%9D%B4%ED%8F%B0-%EC%97%85%EA%B7%B8%EB%A0%88%EC%9D%B4%EB%93%9C-%EA%B8%B0%EB%A1%9D%EC%84%B8%EC%9B%A0%EB%8B%A4%EA%B3%A0-%EB%B0%9D%ED%98%80/</t>
+          <t>https://kr.benzinga.com/news/usa/stocks/%EC%95%A0%ED%94%8C%EC%9D%98-%EA%B4%91%EA%B3%A0-%EC%82%AC%EC%97%85-%EB%B6%80%EB%AC%B8-%EB%AA%A8%EB%91%90-%EC%95%84%EC%9D%B4%ED%8F%B0%EB%A7%8C-%EB%B0%94%EB%9D%BC%EB%B3%B4%EB%8A%94-%EC%82%AC%EC%9D%B4/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>딜사이트</t>
+          <t>디지털투데이</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>폴더블 아이폰 '지연설'…삼성, 폴더블 생태계 주도 강화</t>
+          <t>애플 iOS 26.1 정식 배포…리퀴드 글래스·음악 앱 개선</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[딜사이트 김주연 기자] 애플이 내년 3분기 출시할 예정이던 폴더블 아이폰이 지연될 수 있다는 우려가 나오면서 삼성전자의 '폴더블 지배력'이...</t>
+          <t>[디지털투데이 AI리포터] 애플 iOS 26.1이 정식 배포되며 아이폰 사용자들에게 새로운 기능들이 제공된다. 3일(현지시간) IT매체 테크레이더에 따르면...</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1주 전</t>
+          <t>18시간 전</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://dealsite.co.kr/articles/150200</t>
+          <t>https://www.digitaltoday.co.kr/news/articleView.html?idxno=601987</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Benzinga</t>
+          <t>연합인포맥스</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>애플의 광고 사업 부문, 모두 아이폰만 바라보는 사이 조용히 사상 최고 기록 달성</t>
+          <t>애플, 실적 호조에도 아이폰·중화권 매출 실망…시간외서 주가 하락(상보)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>목요일(30일) 애널리스트들이 팀 쿡에게 아이폰17의 혁신적인 디자인과 중국 수요 회복에 대한 질문을 쏟아내는 동안, 애플(NASDAQ:AAPL)의 이번 분기...</t>
+          <t>아이폰 제조업체 애플(NAS:AAPL)의 최근 분기 실적이 시장 예상을 웃돌았다.애플은 30일(현지시간) 뉴욕증시 마감 후 지난 9월 27일로 끝난 2025 회계...</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1670,33 +1670,6 @@
         </is>
       </c>
       <c r="E46" t="inlineStr">
-        <is>
-          <t>https://kr.benzinga.com/news/usa/stocks/%EC%95%A0%ED%94%8C%EC%9D%98-%EA%B4%91%EA%B3%A0-%EC%82%AC%EC%97%85-%EB%B6%80%EB%AC%B8-%EB%AA%A8%EB%91%90-%EC%95%84%EC%9D%B4%ED%8F%B0%EB%A7%8C-%EB%B0%94%EB%9D%BC%EB%B3%B4%EB%8A%94-%EC%82%AC%EC%9D%B4/</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>연합인포맥스</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>애플, 실적 호조에도 아이폰·중화권 매출 실망…시간외서 주가 하락(상보)</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>아이폰 제조업체 애플(NAS:AAPL)의 최근 분기 실적이 시장 예상을 웃돌았다.애플은 30일(현지시간) 뉴욕증시 마감 후 지난 9월 27일로 끝난 2025 회계...</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>4일 전</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
         <is>
           <t>https://news.einfomax.co.kr/news/articleView.html?idxno=4381466</t>
         </is>

--- a/7. Crawling/아이폰_news_results.xlsx
+++ b/7. Crawling/아이폰_news_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,702 +463,702 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>한겨레</t>
+          <t>파이낸셜뉴스</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>‘혁신 없다’던 아이폰17 의외의 순항…“충성 고객층 탄탄”</t>
+          <t>"아이폰 17, 케이스 빼다가 휘어져".. 셀룰러 문제도 여전 [1일IT템]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>지난 9월 출시 당시에만 해도 '애플 인텔리전스' 등 인공지능(AI) 기능의 혁신을 찾아볼 수 없다는 평가를 받았던 애플의 아이폰17 시리즈가 분기...</t>
+          <t>아이폰 17 시리즈가 역대급 판매 기록을 세우고 있지만 변색 뿐만 아니라 휘어짐, 셀룰러 문제 등이 잇따라 나타나 논란이 되고 있다.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.hani.co.kr/arti/economy/economy_general/1227085.html</t>
+          <t>https://www.fnnews.com/news/202511050851497182</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>케이벤치</t>
+          <t>연합뉴스</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>아이폰 폴드, OLED 맥북 프로까지.. 애플, 2026년 최소 15종 신제품 출시</t>
+          <t>LG전자, 아이폰 생산장비 첫 공급…애플과 협력 전방위 확대</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>아이폰 17 프로. 애플이 2026년 최소 15종의 신제품을 출시할 계획이라고 외신이 블룸버그(Bloomberg) 보고서를 인용해 보도했다.</t>
+          <t>(서울=연합뉴스) 조성흠 기자 = LG전자가 아이폰 생산 장비를 첫 공급하며 계열사 차원의 부품 공급을 넘어 애플과의 협력을 전방위로 확대하게 ...</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://kbench.com/?q=node/272887</t>
+          <t>https://www.yna.co.kr/view/AKR20251105043300003</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>글로벌이코노믹</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>“아이폰 팔아 단백질쉐이크 연명” 난리인데…트럼프는 호화 ‘개츠비 파티’</t>
+          <t>[초점] 삼성·LGD, 아이폰17 패널 98% '석권'…BOE, 품질 한계에 '휘청'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>지난달 1일부터 시작된 미국 연방정부의 '셧다운'(일시적 업무중단)이 한 달 넘게 이어지면서 공무원과 취약 계층 등이 직접적 타격을 입고 있다.</t>
+          <t>애플의 아이폰17 시리즈가 예상을 뛰어넘는 판매 호조를 보이는 가운데 핵심 부품인 유기발광다이오드(OLED) 패널 공급은 삼성디스플레이와 LG...</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.donga.com/news/amp/all/20251103/132691402/1</t>
+          <t>https://www.g-enews.com/article/Global-Biz/2025/11/202511050955146367fbbec65dfb_1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Investing.com 한국어</t>
+          <t>한겨레</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>코르보, 아이폰 성장 힘입어 JP모건, ’중립’으로 등급 상향 By Investing.com</t>
+          <t>‘혁신 없다’던 아이폰17 의외의 순항…“충성 고객층 탄탄”</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Investing.com — JP모건은 코르보 (NASDAQ:QRVO)에 대한 투자의견을 '비중 축소'에서 '중립'으로 상향 조정하고 목표 주가를 92.00달러에서 105.00...</t>
+          <t>지난 9월 출시 당시에만 해도 '애플 인텔리전스' 등 인공지능(AI) 기능의 혁신을 찾아볼 수 없다는 평가를 받았던 애플의 아이폰17 시리즈가 분기...</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13시간 전</t>
+          <t>1일 전</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://kr.investing.com/news/analyst-ratings/article-93CH-1697869</t>
+          <t>https://www.hani.co.kr/arti/economy/economy_general/1227085.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>네이트</t>
+          <t>www.itworld.co.kr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>차기 아이폰18 프로, 퀄컴 의존도 줄인다…애플 자체 칩 도입</t>
+          <t>불편 줄이고 편의성 높였다…iOS 26.1로 업데이트해야 하는 7가지 이유</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>한눈에 보는 오늘 : 종합 - 뉴스 : 애플 아이폰17 프로 [사진: 애플][디지털투데이 AI리포터] 애플이 차기 아이폰18 프로에서 퀄컴 모뎀을 제외하고...</t>
+          <t>iOS 26의 첫 번째 주요 업데이트는 대대적인 변화는 아니지만, 새롭게 추가된 설정과 제스처 기능 덕분에 아이폰 사용 경험을 한층 부드럽고 똑똑하게...</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18시간 전</t>
+          <t>1일 전</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20251104n11775</t>
+          <t>https://www.itworld.co.kr/article/4083688/%EB%B6%88%ED%8E%B8-%EC%A4%84%EC%9D%B4%EA%B3%A0-%ED%8E%B8%EC%9D%98%EC%84%B1-%EB%86%92%EC%98%80%EB%8B%A4ios-26-1%EB%A1%9C-%EC%97%85%EB%8D%B0%EC%9D%B4%ED%8A%B8%ED%95%B4%EC%95%BC-%ED%95%98.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ZUM 뉴스</t>
+          <t>문화일보</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>애플, 아이폰 에어 판매 부진…초슬림 스마트폰 시장 흔들려</t>
+          <t>아이폰 충전기 코에 꽂고 ‘가짜 암 투병’…스포츠 영웅의 몰락</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>아이폰 에어가 기대 이하의 판매 실적을 기록하면서, 초슬림 스마트폰 시장 전체가 흔들리고 있다. 2일(현지시간) IT전문매체 폰아레나는 아이폰 에어...</t>
+          <t>아일랜드에서 영웅으로 칭송받던 스포츠 스타가 휴대전화 충전선을 의료용 산소 기구로 위장, 암 투병을 가장한 뒤 거액을 챙긴 혐의로 징역형을 선고...</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2시간 전</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://m.news.zum.com/articles/101933545/%EC%95%A0%ED%94%8C-%EC%95%84%EC%9D%B4%ED%8F%B0-%EC%97%90%EC%96%B4-%ED%8C%90%EB%A7%A4-%EB%B6%80%EC%A7%84-%EC%B4%88%EC%8A%AC%EB%A6%BC-%EC%8A%A4%EB%A7%88%ED%8A%B8%ED%8F%B0-%EC%8B%9C%EC%9E%A5-%ED%9D%94%EB%93%A4%EB%A0%A4?</t>
+          <t>https://www.munhwa.com/article/11544695</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>인포스탁데일리</t>
+          <t>지디넷코리아</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>애플, 역대 최대 실적... 하이브리드 AI 전략 본격화-NH</t>
+          <t>아이폰18 프로, 버건디 색상 나올까</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[인포스탁데일리=윤서연 기자] NH투자증권은 애플이 아이폰17 시리즈 판매 호조와 서비스 매출 확대에 힘입어 역대 최대 분기 실적을 달성했다고 평가...</t>
+          <t>애플이 내년에 출시할 아이폰18 프로 모델에 적용될 색상을 테스트 중이라는 소식이 나왔다고 IT매체 애플인사이더가 4일(현지시간) 보도했다.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18시간 전</t>
+          <t>15분 전</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.infostockdaily.co.kr/news/articleView.html?idxno=211891</t>
+          <t>https://zdnet.co.kr/view/?no=20251105144758</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>더스쿠프</t>
+          <t>뉴스토마토</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>갤럭시S 가치 오르고 아이폰 빠지고… ‘중고폰’ 판도 변했다 [IT+]</t>
+          <t>LG전자, 애플 아이폰 공장에 생산 장비 첫 공급</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>'중고폰의 가치'가 변하고 있다. 가격이 계속 오르는 데도 사려는 사람이 늘면서 시장이 활성화하고 있다. 흥미롭게도 이를 주도하는 건 삼성전자다.</t>
+          <t>LG전자가 인도에서 애플에 아이폰 완제품 생산 장비를 처음으로 공급했습니다 LG와 애플은 계열사 중심의 부품 협력에서 직접적인 제조 협력으로 관계...</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13시간 전</t>
+          <t>5시간 전</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.thescoop.co.kr/news/articleView.html?idxno=307852</t>
+          <t>https://www.newstomato.com/ReadNews.aspx?no=1280471</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Daum</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>‘실시간 번역’, AirPods 및 전화, FaceTime에서 한국어, 중국어, 일본어 지원</t>
+          <t>LG전자, 애플에 아이폰17 장비 첫 공급…협력 확대</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>'실시간 번역' 기능이 AirPods과 더불어 전화 및 FaceTime 앱에서 이제 한국어, 일본어, 중국어를 지원한다.</t>
+          <t>LG전자가 아이폰 생산 장비를 첫 공급하며 계열사 차원의 부품 공급을 넘어 애플과의 협력을 전방위로 확대하게 됐습니다.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.apple.com/kr/newsroom/2025/11/chinese-japanese-and-korean-live-translation-on-airpods-and-in-phone-facetime/</t>
+          <t>https://v.daum.net/v/20251105094207933</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>브레인박스</t>
+          <t>Benzinga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>벨킨, 아이폰17 시리즈 마그네틱 케이스 및 강화유리 필름 출시 &gt; 뉴스</t>
+          <t>퀄컴, 아이폰17 모뎀의 90% 공급할 것 – JP모건 전망</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>뉴스 본문. 모바일 액세서리 시장의 선두 주자인 벨킨(Belkin)이 아이폰17 시리즈를 위한 프리미엄 액세서리 라인업을 공개했다. 이번 신제품은 '마그네틱 클리어...</t>
+          <t>퀄컴(NASDAQ:QCOM)은 강력한 스마트폰 수요, 애플(NASDAQ:AAPL)의 아이폰17 칩 점유율 확대 그리고 확장되는 AI 기회로 인해 단기 성장 가능성을 확보...</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5시간 전</t>
+          <t>42분 전</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.brainbox.co.kr/bbs/board.php?bo_table=news&amp;wr_id=59533&amp;page=3025</t>
+          <t>https://kr.benzinga.com/news/usa/stocks/%ED%80%84%EC%BB%B4-%EC%95%84%EC%9D%B4%ED%8F%B017-%EB%AA%A8%EB%8E%80%EC%9D%98-90-%EA%B3%B5%EA%B8%89%ED%95%A0-%EA%B2%83-jp%EB%AA%A8%EA%B1%B4-%EC%A0%84%EB%A7%9D/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>산업일보</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[모바일 On] 애플 아이폰 17e, ‘다이내믹 아일랜드’ 디자인 적용</t>
+          <t>LG전자, 印 아이폰 공장에 장비 첫 공급…애플과 협력 확대</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>아이폰17e로 추정되는 제품의 모습 (출처 : 맥루머스) [산업일보]애플이 내년에 출시할 것으로 전망되는 아이폰17e가 디스플레이에 '다이내믹...</t>
+          <t>LG전자가 애플 아이폰 생산 공정에 제조 장비를 처음으로 공급했다. LG디스플레이(디스플레이)와 LG이노텍(카메라 모듈) 등 계열사가 애플에 아이폰용...</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://kidd.co.kr/news/243777</t>
+          <t>https://www.etnews.com/20251105000122</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>금융소비자뉴스</t>
+          <t>프라임경제</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>애플, 아이폰·에어팟에 한국어 실시간 번역 탑재</t>
+          <t>LG전자, 아이폰 생산장비 첫 공급…애플과 협력 확대</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[금융소비자뉴스 김지민 기자] 애플이 에어팟의 실시간 번역 기능에 한국어를 포함한 아시아 주요 언어를 새롭게 추가했다. 이제 에어팟을 착용한 채...</t>
+          <t>인도 이코노믹타임스는 5일 "LG 생산기술원이 폭스콘, 타타 일렉트로닉스, 페가트론이 운영하는 인도 공장에 애플 아이폰17 자동화 제조 공정용 장비...</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19시간 전</t>
+          <t>3시간 전</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.newsfc.co.kr/news/articleView.html?idxno=74723</t>
+          <t>https://m.newsprime.co.kr/section_view.html?no=710475&amp;menu=index</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>파이낸셜뉴스</t>
+          <t>디지털투데이</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>애플, 아이폰 일부 앱·에어팟서 한국어 실시간 번역 기능 추가</t>
+          <t>아이폰 칩 탑재 저가형 맥북 나온다…2026년 상반기 출시 유력</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>애플이 아이폰 일부 앱과 에어팟에 한국어·중국어·일본어 실시간 번역 기능을 추가한다고 4일 밝혔다.전화 앱에서는 통화 내용을 번역된 음성으로...</t>
+          <t>[디지털투데이 AI리포터] 애플이 아이폰 칩을 탑재한 보급형 맥북을 개발 중이며, 2026년 상반기 출시를 목표로 하고 있다고 4일(현지시간) 블룸버그...</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.fnnews.com/news/202511041632096536</t>
+          <t>https://www.digitaltoday.co.kr/news/articleView.html?idxno=602365</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>디지털투데이</t>
+          <t>비즈니스포스트</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>차기 아이폰18 프로, 퀄컴 의존도 줄인다…애플 자체 칩 도입</t>
+          <t>LG전자 인도 아이폰 생산공장에 자동화 장비 공급, 애플과 협력 강화</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[디지털투데이 AI리포터] 애플이 차기 아이폰18 프로에서 퀄컴 모뎀을 제외하고 자체 개발한 C2 모뎀을 탑재할 가능성이 제기됐다.3일(현지시간) IT...</t>
+          <t>[비즈니스포스트] LG전자가 애플에 아이폰 생산 장비를 공급했다. 인도 경제매체 이코노믹타임스는 현지시각 5일 "LG전자 산하 LG 생산기술원이...</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>18시간 전</t>
+          <t>5시간 전</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.digitaltoday.co.kr/news/articleView.html?idxno=601967</t>
+          <t>https://www.businesspost.co.kr/BP?command=article_view&amp;num=418598</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MSN</t>
+          <t>바이라인네트워크</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>애플, 아이폰·에어팟에 한국어 실시간 번역 탑재</t>
+          <t>애플, 아이폰 칩셋 탑재한 저가형 맥북 만든다</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>메시지·전화·영상통화 자동 번역…온디바이스 처리 (서울=연합뉴스) 박형빈 기자 = 애플이 아이폰 일부 앱과 에어팟에 한국어·중국어·일본어 실시간 번역 기능을 추가...</t>
+          <t>애플이 사상 처음으로 저가형 노트북 시장에 본격 진입할 준비를 하고 있다고 블룸버그 통신이 4일 보도했다. 블룸버그에 따르면, 이 신형 맥북은 웹...</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.msn.com/ko-kr/news/other/%EC%95%A0%ED%94%8C-%EC%95%84%EC%9D%B4%ED%8F%B0-%EC%97%90%EC%96%B4%ED%8C%9F%EC%97%90-%ED%95%9C%EA%B5%AD%EC%96%B4-%EC%8B%A4%EC%8B%9C%EA%B0%84-%EB%B2%88%EC%97%AD-%ED%83%91%EC%9E%AC/ar-AA1PKbDp</t>
+          <t>https://byline.network/2025/11/1105/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>딜사이트</t>
+          <t>엠투데이</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[머니네버슬립] 애플, 아이폰17로 사상 최대 실적 전망</t>
+          <t>"영어가 한국어로 들려" 애플, 아이폰·에어팟 실시간 번역에 '한국어' 공식 지원</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>출처 애플 홈페이지 실적은 컨센 상회, 가이던스는 10~12% 성장 애플이 30일(현지시간) 2025회계연도 4분기(7월~9월 분기) 실적을 발표했습니다.</t>
+          <t>[엠투데이 최태인 기자] 애플이 아이폰과 에어팟 등에 탑재된 실시간 번역 기능에 한국어를 지원한다. 서로 다른 언어를 사용하는 사용자 간의 실시간...</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2일 전</t>
+          <t>4시간 전</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://dealsite.co.kr/articles/150545</t>
+          <t>https://www.autodaily.co.kr/news/articleView.html?idxno=538610</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Counterpoint Research</t>
+          <t>뉴데일리 경제</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>애플, 9월 분기 최초로 매출 1,000 억 달러 돌파</t>
+          <t>LG전자, 인도 애플 공장에 아이폰17 '생산 장비' 첫 납품</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>아이폰 17 시리즈, 아이폰 16 시리즈를 상회하는 판매 성과를 보이며 평균판매단가(ASP) 하락폭을 출하량 증가로 상쇄; 신규 모델 제품 출시와 수요...</t>
+          <t>LG전자가 아이폰 생산 장비를 첫 공급하며 애플과의 협력을 전방위로 확대한다. 5일 인도 외신보도에 따르면 LG 생산기술원은 폭스콘,...</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19시간 전</t>
+          <t>1시간 전</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://korea.counterpointresearch.com/apple-revenues-cross-100bn-in-sept-quarter-for-the-first-time/</t>
+          <t>https://biz.newdaily.co.kr/site/data/html/2025/11/05/2025110500339.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>엠투데이</t>
+          <t>Chosun Biz</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>"2026년 신제품 총정리" 애플, 창립 50주년 맞아 아이폰·맥북·스마트 글래스 등 대거 출시</t>
+          <t>LG전자, 애플 아이폰17 생산장비 첫 공급 - 조선비즈</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[엠투데이 최태인 기자] 애플이 내년 창립 50주년을 맞아 역대급 규모의 신제품 라인업을 준비 중인 것으로 알려졌다.지난 2일(현지시간) IT매체 폰...</t>
+          <t>LG전자가 처음으로 애플 아이폰의 생산 장비를 공급한다. 인도 유력 경제매체 이코노믹타임스는 5일 “LG전자 산하 LG생산기술원이 폭스콘,...</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21시간 전</t>
+          <t>3시간 전</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.autodaily.co.kr/news/articleView.html?idxno=538543</t>
+          <t>https://biz.chosun.com/it-science/ict/2025/11/05/4TK6AHSCIZCZZCTAHVROFFC4PQ/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chosun Biz</t>
+          <t>지디넷코리아</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>“재정지원 연구비로 아이폰 산 교수?”… 지방대 사업서 ‘408억원’ 부적정 집행 적발 - 조선비즈</t>
+          <t>"다음에 더 높이 비상"…김승연 회장, 이글스 준우승에 아이폰17 쐈다</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>재정지원 연구비로 아이폰 산 교수 지방대 사업서 408억원 부적정 집행 적발 정부합동 지역혁신사업RIS 점검 결과 RISE 전환 맞아 부패 차단·제도...</t>
+          <t>“한국시리즈 준우승을 진심으로 축하하며, 끝까지 최선을 다한 선수단의 열정에 뜨거운 박수를 보낸다." 김승연 한화그룹이 회장이 4일 이같이 말하며...</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>15시간 전</t>
+          <t>2시간 전</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://biz.chosun.com/policy/policy_sub/2025/11/04/YCZUAAF7T5GJJAH45SUZ3TUJHE/</t>
+          <t>https://zdnet.co.kr/view/?no=20251105140150</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>디지털투데이</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>애플, 앱스토어 웹 버전 대규모 개편…아이폰 없이도 탐색 가능</t>
+          <t>“암 환자인척”···코에 '아이폰 충전기' 꽂고 6억 뜯은 남성</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[디지털투데이 AI리포터] 애플이 앱스토어 웹 인터페이스를 전면 개편하며, 이제 브라우저에서도 아이폰과 동일한 앱스토어 경험을 제공한다.3일(현지...</t>
+          <t>코에 아이폰 충전 케이블을 꽂아 가족과 지인들에게 암 환자인 척 속이고 약 6억 5천만원을 받아 챙긴 아일랜드의 전직 허링(전통 스포츠) 선수 DJ...</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>20시간 전</t>
+          <t>10시간 전</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.digitaltoday.co.kr/news/articleView.html?idxno=601957</t>
+          <t>https://www.etnews.com/20251104000430</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>전자신문</t>
+          <t>이지경제</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>아이폰 폴드, 17 에어보다 더 얇다?</t>
+          <t>“왜 이렇게 아이폰이 많아요?”…이재용의 농담 속 숨은 삼성의 ‘자신감’</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>애플이 내년에 첫 선보일 폴더블폰, 이른바 '아이폰 폴드'가 올해 출시된 아이폰 에어보다 최대 20% 얇을 거란 전망이 나왔다.</t>
+          <t>지난달 30일 서울 강남의 한 치킨집에서 이재용 삼성전자 회장은 젠슨 황 엔비디아 CEO와 치맥을 즐기던 중 옆 테이블 손님이 아이폰을 내밀며 셀카를...</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>3시간 전</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.etnews.com/20251103000004</t>
+          <t>https://www.ezyeconomy.com/news/articleView.html?idxno=224960</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>경인종합일보</t>
+          <t>www.ebn.co.kr</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>아이폰·에어팟에 한국어 실시간 번역 탑재</t>
+          <t>LG전자, 애플 아이폰 생산 장비 첫 공급…전방위 협력 확대</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[경기= 이한준 기자]아이폰 일부 앱과 에어팟에 한국어·중국어·일본어 실시간 번역 기능을 추가된다.애플이 3일(현지시간) 최신 아이폰 운영체제 iOS...</t>
+          <t>LG생산기술원, 폭스콘 등 인도 아이폰17 공장에 자동화 제조 장비 납품 부품 공급 넘어선 첫 성과, 애플 인도 생산 확대에 따른 대규모 물량 기대.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>18시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://www.jonghapnews.com/news/articleView.html?idxno=469886</t>
+          <t>https://www.ebn.co.kr/news/articleView.html?idxno=1685309</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>지디넷코리아</t>
+          <t>데일리안</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>아이폰17도 직접 수리 가능…비용 얼마나 들까</t>
+          <t>LG전자, 아이폰 생산장비 첫 공급…애플과 협력 확대</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>애플이 지난 달 출시한 아이폰17 시리즈를 자가 수리 서비스가 가능한 제품에 포함시켰다고 나인투파이브맥, 애플인사이더 등 외신들이 30일(현지...</t>
+          <t>LG전자가 애플에 아이폰 생산 장비를 처음으로 공급하게 됐다. 계열사 위주로 이뤄진 애플과의 협력이 전방위로 확대되는 모습이다.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>1시간 전</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://zdnet.co.kr/view/?no=20251031105426</t>
+          <t>https://www.dailian.co.kr/news/view/1569219/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>머니투데이</t>
+          <t>뉴스핌</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>치맥 2차는 이곳…이재용 "아이폰 왜 이리 많나" 말에 삼전 주가창 등장 - 머니투데이</t>
+          <t>아이폰17 흥행 잇는 삼성D…애플 폴더블 '출시 시점 변수'에도 낙관론 우세</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>이재용 삼성전자 회장이 지포스 게이밍 페스티벌 무대에 올라 관중들의 '아이폰'을 지적했다. 지난 30일 서울 코엑스에서 열린 '지포스 게이밍...</t>
+          <t>아이폰17 전 모델 패널 공급…폴더블 공급도 유력 "출시 지연 가능성↓…1000만대 이상 출하 기대". [서울=뉴스핌] 김정인 기자 = 아이폰17 시리즈 흥행...</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5일 전</t>
+          <t>1시간 전</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.mt.co.kr/society/2025/10/30/2025103023002260891</t>
+          <t>https://www.newspim.com/news/view/20251105000921</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Daum</t>
+          <t>소셜밸류</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>“삼성 최고폰 100만원 할인” “우린 공짜로 준다”…난리였는데, ‘충격 반전’</t>
+          <t>LG전자, 애플 아이폰17 생산 장비 첫 공급…글로벌 제조 경쟁력 입증</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[헤럴드경제=권제인 기자] “공짜폰 쏟아질 줄 알았는데, 실망이다.” 공짜폰, 수백만원대 지원금을 기대했던 소비자들이 크게 실망하고 있다.</t>
+          <t>[소셜밸류=소민영 기자] LG전자가 애플에 아이폰 생산 장비를 처음 공급하며, 계열사 중심의 부품 협력에서 직접적인 제조 협력으로 관계를 한층 확대...</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3주 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://v.daum.net/v/20251011202648391</t>
+          <t>https://www.socialvalue.kr/news/view/1065575196627378</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>디지털투데이</t>
+          <t>생생비즈</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>애플, 아이폰 에어 판매 부진…초슬림 스마트폰 시장 흔들려</t>
+          <t>LG전자, 애플 인도공장에 아이폰 생산장비 첫 공급…협력 전방위 확대</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[디지털투데이 AI리포터] 아이폰 에어가 기대 이하의 판매 실적을 기록하면서, 초슬림 스마트폰 시장 전체가 흔들리고 있다.2일(현지시간) IT전문매체...</t>
+          <t>LG전자가 애플의 인도 공장에 최신 아이폰 모델 생산을 위한 제조장비를 처음으로 공급하며 협력 관계를 전방위로 확대하고 나섰다.5일 인도의 경제...</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.digitaltoday.co.kr/news/articleView.html?idxno=601754</t>
+          <t>https://www.livebiz.today/news/articleView.html?idxno=10429</t>
         </is>
       </c>
     </row>
@@ -1170,508 +1170,562 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>애플, 아이폰 일부 앱·에어팟서 한국어 실시간 번역 기능 추가</t>
+          <t>LG전자, 아이폰 생산장비 첫 공급…애플 협력 확대</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>한눈에 보는 오늘 : IT/과학 - 뉴스 : 에어팟 프로3. 애플 제공 애플이 아이폰 일부 앱과 에어팟에 한국어\·중국어\·일본어 실시간 번역 기능을 추가...</t>
+          <t>한눈에 보는 오늘 : 경제 - 뉴스 : LG전자가 아이폰 생산 장비를 처음 공급하면서 계열사 차원의 부품 공급을 넘어 애플과의 협력을 전방위로 확대...</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11시간 전</t>
+          <t>58분 전</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20251104n34480</t>
+          <t>https://news.nate.com/view/20251105n26740</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>케이벤치</t>
+          <t>네이트 스포츠</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>'아너 500' 시리즈 스케치 유출.. '아이폰 에어' 디자인 유사</t>
+          <t>코에 '아이폰 충전기' 꽂고 가짜 암 투병…팬들에게 6억 뜯어낸 '국민 영웅'</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>출처: DCS 웨이보. 중국 스마트폰 제조사 아너(Honor)가 이달 말 중국에서 공식 발표할 예정인 '아너 500' 시리즈의 디자인이 공개됐다.</t>
+          <t>한눈에 보는 오늘 : 스포츠 일반 - 뉴스 : 아일랜드 스포츠스타 캐리. 출처=sports joe (서울=뉴스1) 김학진 기자 = 아일랜드의 국민이 영웅으로...</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://kbench.com/?q=node/272880</t>
+          <t>https://sports.news.nate.com/view/20251105n10989</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>지디넷코리아</t>
+          <t>네이트</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>아이폰17 바람 거셌다…팀 쿡 "12월 분기, 사상 최고 전망"</t>
+          <t>LG전자, 아이폰 생산장비 첫 공급…애플 협력 전방위 확대</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>아이폰17 바람을 탄 애플이 시장 예상치를 뛰어넘는 분기 실적을 기록했다고 CNBC 등 외신들이 30일(현지시간) 보도했다.</t>
+          <t>한눈에 보는 오늘 : 경제 - 뉴스 : LG전자 여의도 트윈타워 사옥 전경. 사진=LG전자 제공[데일리한국 이학림 기자]LG전자가 아이폰 생산 장비를 공급...</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>31분 전</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://zdnet.co.kr/view/?no=20251031075654</t>
+          <t>https://news.nate.com/view/20251105n28522</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KBS 뉴스</t>
+          <t>서울경제</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>‘엔비디아 행사’ 뜬 이재용 “근데 아이폰이 왜 이렇게 많아요” [지금뉴스]</t>
+          <t>LG전자, 印 애플 아이폰 공장에 완제품 장비 첫 공급</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>젠슨 황 엔비디아 CEO가 30일 밤, 서울 코엑스 K-POP 광장에서 열린 엔비디아 '지포스 게이머 페스티벌 ' ...</t>
+          <t>경제·금융 &gt; 경제동향 뉴스: LG전자(066570)가 인도에서 애플에 아이폰 완제품 생산 장비를 처음으로 공급했다. 계열사 차원의 부품 공급을 넘어 애플...</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5시간 전</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://news.kbs.co.kr/news/view.do?ncd=8395678</t>
+          <t>https://www.sedaily.com/NewsView/2H0C3R23YY</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>뉴닉</t>
+          <t>디지털데일리</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>역대 최고 매출 낼 것 같다는 애플, 원인은 ‘아이폰 17 대흥행’? 🍎💰</t>
+          <t>`메이크인 인디아` LG전자, 애플과도 협력 확대…인도 공장에 아이폰 생산장비 공급</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>애플이 역대 최고 분기 매출을 낼 것 같다는 예측이 나왔어요. 애플은 2025 회계연도 4분기(7~9월) 실적으로 매출이 1024억 7000만 달러를 기록했다고...</t>
+          <t>[디지털데일리 옥송이 기자] 지난달 인도법인을 현지 증시에 성공적으로 상장하는 등 '인도 국민 기업' 도약을 도모하는 LG전자가 애플과도 협력을 다...</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5시간 전</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://newneek.co/@newneek/article/36558</t>
+          <t>https://www.ddaily.co.kr/page/view/2025110510394529450</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>디지털데일리</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>애플, 아이폰18 프로 색상 또 바꾼다…브라운·퍼플·버건디</t>
+          <t>‘실시간 번역’, AirPods 및 전화, FaceTime에서 한국어, 중국어, 일본어 지원</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>아이폰 17 시리즈. (왼쪽부터)아이폰17 기본형, 아이폰...</t>
+          <t>'실시간 번역' 기능이 AirPods과 더불어 전화 및 FaceTime 앱에서 이제 한국어, 일본어, 중국어를 지원한다.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3일 전</t>
+          <t>1일 전</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://m.ddaily.co.kr/page/view/2025110107460510942</t>
+          <t>https://www.apple.com/kr/newsroom/2025/11/chinese-japanese-and-korean-live-translation-on-airpods-and-in-phone-facetime/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>뉴스스페이스</t>
+          <t>MHN / 엠에이치앤</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[빅테크칼럼] 애플, 폴더블 아이폰 2026년 가을에 나온다…"창립 50돌 맞아 내년 최소 15종 신제품 출시"</t>
+          <t>부품을 넘어 장비까지... LG전자, 아이폰 생산장비 첫 공급</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>뉴스스페이스는 Space라는 제호처럼 “지구에서 우주로, 시간에서 공간으로, 개론에서 담론으로“으로 영역을 넓혀갑니다. 우주항공과 빅테크를 비롯해...</t>
+          <t>(MHN 이주환 인턴기자) LG전자가 애플과의 협력을 제조 현장까지 넓힌다.인도 유력 경제매체 이코노믹타임스는 5일 "LG 생산기술원이 폭스콘,...</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>3시간 전</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.newsspace.kr/news/article.html?no=10470</t>
+          <t>https://www.mhnse.com/news/articleView.html?idxno=481385</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>데일리시큐</t>
+          <t>뉴스핌</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>힐링쉴드, 아이폰 17 시리즈 전용 ‘프라이버시 보호필름’ 2종 출시</t>
+          <t>LG전자, 인도서 아이폰 생산장비 첫 공급…애플 협력 범위 넓혔다</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>디지털 디바이스 액세서리 전문 브랜드 힐링쉴드(Healing Shield)가 애플의 최신 스마트폰 아이폰 17 시리즈 전용 '프라이버시 보호필름' 2종(SGAF·</t>
+          <t>[서울=뉴스핌] 김정인 기자 = LG전자가 인도 내 애플 아이폰 생산라인에 제조장비를 처음으로 공급했다. 그동안 LG디스플레이·LG이노텍 등 계열사가...</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>5시간 전</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.dailysecu.com/news/articleView.html?idxno=201997</t>
+          <t>https://www.newspim.com/news/view/20251105000475</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Vietnam.vn</t>
+          <t>네이트</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>아이폰 18 프로 맥스, 새로운 색상 출시 예정</t>
+          <t>LG전자, 애플 아이폰 생산장비 첫 공급…자동화 기술력 인정</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>(댄 트리) - 소셜 네트워크 Weibo에 게시된 게시물에서 Instant Digital 소식통은 iPhone 18 Pro와 iPhone 18 Pro Max 듀오가 커피 브라운,...</t>
+          <t>한눈에 보는 오늘 : 경제 - 뉴스 : [이데일리 공지유 기자] LG전자(066570)가 애플 아이폰 생산 공정에 제조 장비를 처음으로 공급했다.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>2시간 전</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.vietnam.vn/ko/iphone-18-pro-max-se-co-mau-sac-moi</t>
+          <t>https://news.nate.com/view/20251105n21896</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>지디넷코리아</t>
+          <t>더스쿠프</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>"에어팟 실시간 번역 한국어도 된다"</t>
+          <t>갤럭시S 가치 오르고 아이폰 빠지고… ‘중고폰’ 판도 변했다 [IT+]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>애플이 3일(현지시간) 최신 아이폰 운영체제 iOS 26.1을 정식 출시했다고 나인투파이브맥 등 외신들이 보도했다. 새롭게 출시된 iOS 26.1 기능 중 눈...</t>
+          <t>'중고폰의 가치'가 변하고 있다. 가격이 계속 오르는 데도 사려는 사람이 늘면서 시장이 활성화하고 있다. 흥미롭게도 이를 주도하는 건 삼성전자다.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>20시간 전</t>
+          <t>1일 전</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://zdnet.co.kr/view/?no=20251104080656</t>
+          <t>https://www.thescoop.co.kr/news/articleView.html?idxno=307852</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Benzinga</t>
+          <t>네이트</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>주간 기술 뉴스: 애플의 사상 최대 아이폰 교체 수요, 넷플릭스의 워너 브라더스 인수 검토, 오픈AI의 IPO 등</t>
+          <t>LG전자, 아이폰 생산장비 첫 공급…애플과 협력 전방위 확대</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>지난주 기술계는 일련의 흥미로운 소식들로 떠들썩했다. 엔비디아(NASDAQ:NVDA) 시가총액이 5조 달러를 돌파하면서 애플(NASDAQ:AAPL)과 마이크로...</t>
+          <t>한눈에 보는 오늘 : 경제 - 뉴스 : 인도 공장에 아이폰17 자동화 제조공정용 장비 납품 공급망 변화 애플 구원투수로…인도 및 글로벌 사업확장 발판...</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://kr.benzinga.com/news/usa/stocks/%EC%A3%BC%EA%B0%84-%EA%B8%B0%EC%88%A0-%EB%89%B4%EC%8A%A4-%EC%95%A0%ED%94%8C%EC%9D%98-%EC%82%AC%EC%83%81-%EC%B5%9C%EB%8C%80-%EC%95%84%EC%9D%B4%ED%8F%B0-%EA%B5%90%EC%B2%B4-%EC%88%98%EC%9A%94-%EB%84%B7/</t>
+          <t>https://news.nate.com/view/20251105n08406</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>디지털투데이</t>
+          <t>네이트</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>차기 아이폰18 프로, 블랙 컬러 빠진다…세 가지 유력 색상 등장</t>
+          <t>LG전자, 아이폰17 생산 장비 첫 공급…애플과 협력 전방위 확대</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[디지털투데이 AI리포터] 애플이 내년 아이폰18 프로와 프로 맥스 출시를 앞둔 가운데, 새로운 색상을 추가할 가능성이 제기됐다.</t>
+          <t>한눈에 보는 오늘 : IT/과학 - 뉴스 : /마이데일리DB[마이데일리 = 윤진웅 기자] LG전자가 아이폰 생산 장비를 첫 공급하며 애플과의 협력을 확대했다...</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1일 전</t>
+          <t>5시간 전</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.digitaltoday.co.kr/news/articleView.html?idxno=601610</t>
+          <t>https://news.nate.com/view/20251105n13103</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>시선뉴스</t>
+          <t>산업일보</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>애플, 아이폰·에어팟에 한국어 실시간 번역 도입…“대화 중 자동 통역된다”</t>
+          <t>[모바일 On] 애플 아이폰 17e, ‘다이내믹 아일랜드’ 디자인 적용</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>애플이 아이폰과 에어팟에 한국어 실시간 번역 기능을 도입하며 글로벌 사용자 편의성을 한층 강화했다.4일 애플은 아이폰의 일부 앱과 에어팟 프로...</t>
+          <t>아이폰17e로 추정되는 제품의 모습 (출처 : 맥루머스) [산업일보]애플이 내년에 출시할 것으로 전망되는 아이폰17e가 디스플레이에 '다이내믹...</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>17시간 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://www.sisunnews.co.kr/news/articleView.html?idxno=230838</t>
+          <t>https://kidd.co.kr/news/243777</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>뉴시스</t>
+          <t>연합뉴스</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"디자인 최악" 혹평 받던 아이폰17 역대급 반전…밀려든 주문에 팀쿡도 놀랐다</t>
+          <t>애플, 아이폰·에어팟에 한국어 실시간 번역 탑재</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>회계연도 4분기 매출 1025억 달러…4분기 사상 최대 실적 팀 쿡 "예상 뛰어넘는 아이폰17 수요…공급 부족할 정도" 다음 분기에도 두자릿수 성장한 역대...</t>
+          <t>(서울=연합뉴스) 박형빈 기자 = 애플이 아이폰 일부 앱과 에어팟에 한국어·중국어·일본어 실시간 번역 기능을 추가한다고 4일 밝혔다.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>1일 전</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.newsis.com/view/NISX20251031_0003384643</t>
+          <t>https://www.yna.co.kr/view/AKR20251104031900017</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>머니투데이</t>
+          <t>스마트에프엔</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>애플, 아이폰 17 반응 열광적…기대 넘은 매출 전망, 주가 2%대 상승</t>
+          <t>LG전자, 애플 아이폰17 생산 장비 최초 공급 공식 발표</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>애플이 30일(현지시간) 시장 예상을 웃도는 지난 7~9월 분기 실적과 강력한 향후 실적 가이던스를 제시했다. 이에 따라 주가는 시간외거래에서 2.7%...</t>
+          <t>스마트에프엔 = 양대규 기자 | LG전자가 아이폰 생산 장비를 처음으로 공급하면서 애플과의 협력을 확대했다. 5일 인도 경제매체 이코노믹타임스에...</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.mt.co.kr/world/2025/10/31/2025103107414859705</t>
+          <t>https://www.smartfn.co.kr/news/articleView.html?idxno=124919</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Benzinga</t>
+          <t>네이트</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>팀 쿡, 9월 아이폰 업그레이드 기록세웠다고 밝혀···“강력한 수요로 일부 모델 공급 제한적”</t>
+          <t>"아이폰 칩으로 저가 맥북 만든다?"…기술주 부진 속 애플 강세 [투자360]</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>목요일(30일) 애플(NASDAQ:AAPL)의 팀 쿡 최고경영자(CEO)는 9월 아이폰 업그레이드 기록을 세웠다고 밝히며, 최신 아이폰17 라인업에 대한 수요가...</t>
+          <t>5일 뉴욕증시서 주가 0.37% ↑ 블룸버그 “애플, 내년 상반기 첫 저가형 노트북 출시” DZ Bank, 목표주가 300달러 제시. "아이폰 칩으로 저가 맥북...</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>8시간 전</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://kr.benzinga.com/news/usa/stocks/%ED%8C%80-%EC%BF%A1-9%EC%9B%94-%EC%95%84%EC%9D%B4%ED%8F%B0-%EC%97%85%EA%B7%B8%EB%A0%88%EC%9D%B4%EB%93%9C-%EA%B8%B0%EB%A1%9D%EC%84%B8%EC%9B%A0%EB%8B%A4%EA%B3%A0-%EB%B0%9D%ED%98%80/</t>
+          <t>https://news.nate.com/view/20251105n04317</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Benzinga</t>
+          <t>네이트</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>애플의 광고 사업 부문, 모두 아이폰만 바라보는 사이 조용히 사상 최고 기록 달성</t>
+          <t>애플, 아이폰 칩 탑재한 '반값 맥북' 출시 개발 본격화…2026년 상반기 MS·크롬 대항마 등장한다</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>목요일(30일) 애널리스트들이 팀 쿡에게 아이폰17의 혁신적인 디자인과 중국 수요 회복에 대한 질문을 쏟아내는 동안, 애플(NASDAQ:AAPL)의 이번 분기...</t>
+          <t>한눈에 보는 오늘 : 종합 - 뉴스 : 맥북 에어 | 제공 - 애플(Apple)애플이 기존 애플 실리콘 M 시리즈 칩이 아닌, 모바일 프로세서를 탑재한 저가형...</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5시간 전</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://kr.benzinga.com/news/usa/stocks/%EC%95%A0%ED%94%8C%EC%9D%98-%EA%B4%91%EA%B3%A0-%EC%82%AC%EC%97%85-%EB%B6%80%EB%AC%B8-%EB%AA%A8%EB%91%90-%EC%95%84%EC%9D%B4%ED%8F%B0%EB%A7%8C-%EB%B0%94%EB%9D%BC%EB%B3%B4%EB%8A%94-%EC%82%AC%EC%9D%B4/</t>
+          <t>https://news.nate.com/view/20251105n16740</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>디지털투데이</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>애플 iOS 26.1 정식 배포…리퀴드 글래스·음악 앱 개선</t>
+          <t>40대 갤럭시 사용률 줄어… 이재용의 ‘뼈있는 아이폰 농담’</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[디지털투데이 AI리포터] 애플 iOS 26.1이 정식 배포되며 아이폰 사용자들에게 새로운 기능들이 제공된다. 3일(현지시간) IT매체 테크레이더에 따르면...</t>
+          <t>이재용 삼성전자 회장은 지난달 30일 젠슨 황 엔비디아 최고경영자(CEO)와의 회동에서 아이폰을 견제하는 농담을 수차례 던졌다.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>18시간 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.digitaltoday.co.kr/news/articleView.html?idxno=601987</t>
+          <t>https://www.chosun.com/economy/industry-company/2025/11/03/WGH455MRWVDVNAUHHBEHQP6MKY/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>연합인포맥스</t>
+          <t>딜사이트</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>애플, 실적 호조에도 아이폰·중화권 매출 실망…시간외서 주가 하락(상보)</t>
+          <t>[머니네버슬립] 애플, 아이폰17로 사상 최대 실적 전망</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>아이폰 제조업체 애플(NAS:AAPL)의 최근 분기 실적이 시장 예상을 웃돌았다.애플은 30일(현지시간) 뉴욕증시 마감 후 지난 9월 27일로 끝난 2025 회계...</t>
+          <t>출처 애플 홈페이지 실적은 컨센 상회, 가이던스는 10~12% 성장 애플이 30일(현지시간) 2025회계연도 4분기(7월~9월 분기) 실적을 발표했습니다.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>2일 전</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://news.einfomax.co.kr/news/articleView.html?idxno=4381466</t>
+          <t>https://dealsite.co.kr/articles/150545</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>디지털투데이</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>애플, 에어팟 실시간 번역 기능 유럽 도입…12월 정식 출시</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[디지털투데이 AI리포터] 아이폰과 에어팟의 실시간 번역 기능이 유럽에서도 지원된다.4일(현지시간) IT매체 나인투파이브맥에 따르면, 애플은 디지털...</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6시간 전</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.digitaltoday.co.kr/news/articleView.html?idxno=602360</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>뉴스후플러스</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>애플, 'AI 부진설' 딛고 시총 4조 달러 돌파…글로벌 3위 복귀</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>인공지능(AI) 경쟁에서 뒤처졌다는 우려를 딛고 애플이 28일(현지시간) 사상 처음 시가총액 4조달러(약 5740조원)를 돌파한 것으로 나타났다.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9시간 전</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.newswhoplus.com/news/articleView.html?idxno=44890</t>
         </is>
       </c>
     </row>
